--- a/resource/okayama/shop_list.xlsx
+++ b/resource/okayama/shop_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/Desktop/okayama/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/okayama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94723DA9-F65A-E248-9A0C-D201EBA28AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB9E1F2-0179-294A-830B-B8FFB4509CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="277">
   <si>
     <t>ページ</t>
   </si>
@@ -872,6 +872,12 @@
   </si>
   <si>
     <t>倉敷市阿知1-14-23</t>
+  </si>
+  <si>
+    <t>NEW/復活</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
@@ -1826,20 +1832,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="42.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1853,13 +1859,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1873,10 +1882,13 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1890,10 +1902,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1907,10 +1922,13 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1924,10 +1942,13 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1940,11 +1961,11 @@
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1957,11 +1978,11 @@
       <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1974,11 +1995,11 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1991,11 +2012,11 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2008,11 +2029,11 @@
       <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2026,10 +2047,13 @@
         <v>33</v>
       </c>
       <c r="E11" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2042,11 +2066,11 @@
       <c r="D12" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2060,10 +2084,13 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2076,11 +2103,11 @@
       <c r="D14" t="s">
         <v>41</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2093,11 +2120,11 @@
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2111,10 +2138,13 @@
         <v>46</v>
       </c>
       <c r="E16" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2127,11 +2157,11 @@
       <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21">
+    <row r="18" spans="1:6" ht="21">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2144,11 +2174,14 @@
       <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2162,10 +2195,13 @@
         <v>53</v>
       </c>
       <c r="E19" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2178,11 +2214,11 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2195,11 +2231,11 @@
       <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2213,10 +2249,13 @@
         <v>62</v>
       </c>
       <c r="E22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2230,10 +2269,13 @@
         <v>64</v>
       </c>
       <c r="E23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2247,10 +2289,13 @@
         <v>68</v>
       </c>
       <c r="E24" t="s">
+        <v>276</v>
+      </c>
+      <c r="F24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2264,10 +2309,13 @@
         <v>70</v>
       </c>
       <c r="E25" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2281,10 +2329,13 @@
         <v>72</v>
       </c>
       <c r="E26" t="s">
+        <v>276</v>
+      </c>
+      <c r="F26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21">
+    <row r="27" spans="1:6" ht="21">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2297,11 +2348,14 @@
       <c r="D27" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
+        <v>276</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2315,10 +2369,13 @@
         <v>77</v>
       </c>
       <c r="E28" t="s">
+        <v>276</v>
+      </c>
+      <c r="F28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2332,10 +2389,13 @@
         <v>80</v>
       </c>
       <c r="E29" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2349,10 +2409,13 @@
         <v>83</v>
       </c>
       <c r="E30" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2366,10 +2429,13 @@
         <v>86</v>
       </c>
       <c r="E31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2383,10 +2449,13 @@
         <v>88</v>
       </c>
       <c r="E32" t="s">
+        <v>276</v>
+      </c>
+      <c r="F32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2400,10 +2469,13 @@
         <v>91</v>
       </c>
       <c r="E33" t="s">
+        <v>276</v>
+      </c>
+      <c r="F33" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2417,10 +2489,13 @@
         <v>94</v>
       </c>
       <c r="E34" t="s">
+        <v>276</v>
+      </c>
+      <c r="F34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2434,10 +2509,13 @@
         <v>96</v>
       </c>
       <c r="E35" t="s">
+        <v>276</v>
+      </c>
+      <c r="F35" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -2450,11 +2528,11 @@
       <c r="D36" t="s">
         <v>99</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -2467,11 +2545,11 @@
       <c r="D37" t="s">
         <v>101</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2484,11 +2562,11 @@
       <c r="D38" t="s">
         <v>104</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="21">
+    <row r="39" spans="1:6" ht="21">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -2501,11 +2579,11 @@
       <c r="D39" t="s">
         <v>106</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="21">
+    <row r="40" spans="1:6" ht="21">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -2518,11 +2596,11 @@
       <c r="D40" t="s">
         <v>109</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -2536,10 +2614,13 @@
         <v>112</v>
       </c>
       <c r="E41" t="s">
+        <v>276</v>
+      </c>
+      <c r="F41" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2553,10 +2634,13 @@
         <v>115</v>
       </c>
       <c r="E42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2569,11 +2653,11 @@
       <c r="D43" t="s">
         <v>117</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -2587,10 +2671,13 @@
         <v>119</v>
       </c>
       <c r="E44" t="s">
+        <v>276</v>
+      </c>
+      <c r="F44" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2603,11 +2690,11 @@
       <c r="D45" t="s">
         <v>122</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2620,11 +2707,11 @@
       <c r="D46" t="s">
         <v>125</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="21">
+    <row r="47" spans="1:6" ht="21">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -2637,11 +2724,14 @@
       <c r="D47" t="s">
         <v>127</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
+        <v>276</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2654,11 +2744,11 @@
       <c r="D48" t="s">
         <v>130</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2671,11 +2761,11 @@
       <c r="D49" t="s">
         <v>132</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -2688,11 +2778,11 @@
       <c r="D50" t="s">
         <v>134</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2705,11 +2795,11 @@
       <c r="D51" t="s">
         <v>136</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -2722,11 +2812,11 @@
       <c r="D52" t="s">
         <v>139</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2740,10 +2830,13 @@
         <v>117</v>
       </c>
       <c r="E53" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -2757,10 +2850,13 @@
         <v>144</v>
       </c>
       <c r="E54" t="s">
+        <v>276</v>
+      </c>
+      <c r="F54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2774,10 +2870,13 @@
         <v>146</v>
       </c>
       <c r="E55" t="s">
+        <v>276</v>
+      </c>
+      <c r="F55" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>148</v>
       </c>
@@ -2790,11 +2889,11 @@
       <c r="D56" t="s">
         <v>150</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>148</v>
       </c>
@@ -2808,10 +2907,13 @@
         <v>152</v>
       </c>
       <c r="E57" t="s">
+        <v>276</v>
+      </c>
+      <c r="F57" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -2824,11 +2926,11 @@
       <c r="D58" t="s">
         <v>154</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -2841,11 +2943,11 @@
       <c r="D59" t="s">
         <v>157</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -2859,10 +2961,13 @@
         <v>160</v>
       </c>
       <c r="E60" t="s">
+        <v>276</v>
+      </c>
+      <c r="F60" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -2875,11 +2980,11 @@
       <c r="D61" t="s">
         <v>163</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -2892,11 +2997,11 @@
       <c r="D62" t="s">
         <v>165</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -2909,11 +3014,11 @@
       <c r="D63" t="s">
         <v>168</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -2926,11 +3031,11 @@
       <c r="D64" t="s">
         <v>171</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="21">
+    <row r="65" spans="1:6" ht="21">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -2943,11 +3048,11 @@
       <c r="D65" t="s">
         <v>175</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -2960,11 +3065,11 @@
       <c r="D66" t="s">
         <v>178</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -2977,11 +3082,11 @@
       <c r="D67" t="s">
         <v>180</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -2994,11 +3099,11 @@
       <c r="D68" t="s">
         <v>182</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>173</v>
       </c>
@@ -3011,11 +3116,11 @@
       <c r="D69" t="s">
         <v>184</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -3028,11 +3133,11 @@
       <c r="D70" t="s">
         <v>186</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>173</v>
       </c>
@@ -3046,10 +3151,13 @@
         <v>188</v>
       </c>
       <c r="E71" t="s">
+        <v>276</v>
+      </c>
+      <c r="F71" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -3063,10 +3171,13 @@
         <v>191</v>
       </c>
       <c r="E72" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>173</v>
       </c>
@@ -3080,10 +3191,13 @@
         <v>193</v>
       </c>
       <c r="E73" t="s">
+        <v>276</v>
+      </c>
+      <c r="F73" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -3096,11 +3210,11 @@
       <c r="D74" t="s">
         <v>196</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -3113,11 +3227,11 @@
       <c r="D75" t="s">
         <v>198</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="21">
+    <row r="76" spans="1:6" ht="21">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -3130,11 +3244,14 @@
       <c r="D76" t="s">
         <v>201</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -3147,11 +3264,11 @@
       <c r="D77" t="s">
         <v>204</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -3164,11 +3281,11 @@
       <c r="D78" t="s">
         <v>206</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="21">
+    <row r="79" spans="1:6" ht="21">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -3181,11 +3298,14 @@
       <c r="D79" t="s">
         <v>209</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
+        <v>276</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -3199,10 +3319,13 @@
         <v>204</v>
       </c>
       <c r="E80" t="s">
+        <v>276</v>
+      </c>
+      <c r="F80" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -3216,10 +3339,13 @@
         <v>213</v>
       </c>
       <c r="E81" t="s">
+        <v>276</v>
+      </c>
+      <c r="F81" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -3232,11 +3358,11 @@
       <c r="D82" t="s">
         <v>216</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -3249,11 +3375,11 @@
       <c r="D83" t="s">
         <v>218</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="21">
+    <row r="84" spans="1:6" ht="21">
       <c r="A84" t="s">
         <v>220</v>
       </c>
@@ -3266,11 +3392,14 @@
       <c r="D84" t="s">
         <v>222</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
+        <v>276</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>220</v>
       </c>
@@ -3284,10 +3413,13 @@
         <v>225</v>
       </c>
       <c r="E85" t="s">
+        <v>276</v>
+      </c>
+      <c r="F85" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="21">
+    <row r="86" spans="1:6" ht="21">
       <c r="A86" t="s">
         <v>220</v>
       </c>
@@ -3300,11 +3432,14 @@
       <c r="D86" t="s">
         <v>228</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
+        <v>276</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>220</v>
       </c>
@@ -3318,10 +3453,13 @@
         <v>231</v>
       </c>
       <c r="E87" t="s">
+        <v>276</v>
+      </c>
+      <c r="F87" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -3335,10 +3473,13 @@
         <v>233</v>
       </c>
       <c r="E88" t="s">
+        <v>276</v>
+      </c>
+      <c r="F88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>220</v>
       </c>
@@ -3352,10 +3493,13 @@
         <v>235</v>
       </c>
       <c r="E89" t="s">
+        <v>276</v>
+      </c>
+      <c r="F89" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>220</v>
       </c>
@@ -3369,10 +3513,13 @@
         <v>237</v>
       </c>
       <c r="E90" t="s">
+        <v>276</v>
+      </c>
+      <c r="F90" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>220</v>
       </c>
@@ -3386,10 +3533,13 @@
         <v>240</v>
       </c>
       <c r="E91" t="s">
+        <v>276</v>
+      </c>
+      <c r="F91" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>220</v>
       </c>
@@ -3403,10 +3553,13 @@
         <v>242</v>
       </c>
       <c r="E92" t="s">
+        <v>276</v>
+      </c>
+      <c r="F92" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -3420,10 +3573,13 @@
         <v>244</v>
       </c>
       <c r="E93" t="s">
+        <v>276</v>
+      </c>
+      <c r="F93" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>220</v>
       </c>
@@ -3437,10 +3593,13 @@
         <v>247</v>
       </c>
       <c r="E94" t="s">
+        <v>276</v>
+      </c>
+      <c r="F94" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -3454,10 +3613,13 @@
         <v>250</v>
       </c>
       <c r="E95" t="s">
+        <v>276</v>
+      </c>
+      <c r="F95" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -3471,10 +3633,13 @@
         <v>253</v>
       </c>
       <c r="E96" t="s">
+        <v>276</v>
+      </c>
+      <c r="F96" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>220</v>
       </c>
@@ -3488,10 +3653,13 @@
         <v>255</v>
       </c>
       <c r="E97" t="s">
+        <v>276</v>
+      </c>
+      <c r="F97" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>220</v>
       </c>
@@ -3505,10 +3673,13 @@
         <v>258</v>
       </c>
       <c r="E98" t="s">
+        <v>276</v>
+      </c>
+      <c r="F98" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>220</v>
       </c>
@@ -3522,10 +3693,13 @@
         <v>260</v>
       </c>
       <c r="E99" t="s">
+        <v>276</v>
+      </c>
+      <c r="F99" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>220</v>
       </c>
@@ -3539,10 +3713,13 @@
         <v>262</v>
       </c>
       <c r="E100" t="s">
+        <v>276</v>
+      </c>
+      <c r="F100" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>220</v>
       </c>
@@ -3556,10 +3733,13 @@
         <v>264</v>
       </c>
       <c r="E101" t="s">
+        <v>276</v>
+      </c>
+      <c r="F101" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -3573,10 +3753,13 @@
         <v>267</v>
       </c>
       <c r="E102" t="s">
+        <v>276</v>
+      </c>
+      <c r="F102" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>220</v>
       </c>
@@ -3590,10 +3773,13 @@
         <v>269</v>
       </c>
       <c r="E103" t="s">
+        <v>276</v>
+      </c>
+      <c r="F103" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -3607,10 +3793,13 @@
         <v>271</v>
       </c>
       <c r="E104" t="s">
+        <v>276</v>
+      </c>
+      <c r="F104" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>220</v>
       </c>
@@ -3624,6 +3813,9 @@
         <v>274</v>
       </c>
       <c r="E105" t="s">
+        <v>276</v>
+      </c>
+      <c r="F105" t="s">
         <v>26</v>
       </c>
     </row>

--- a/resource/okayama/shop_list.xlsx
+++ b/resource/okayama/shop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/okayama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB9E1F2-0179-294A-830B-B8FFB4509CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2B68E-C1C6-4643-82D2-FE1E524E6645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="281">
   <si>
     <t>ページ</t>
   </si>
@@ -878,6 +878,19 @@
   </si>
   <si>
     <t>NEW</t>
+  </si>
+  <si>
+    <t>期間延長日</t>
+  </si>
+  <si>
+    <t>閉店フラグ</t>
+  </si>
+  <si>
+    <t>お知らせ</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -1832,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1845,7 +1858,7 @@
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1867,8 +1880,17 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1887,8 +1909,17 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1907,8 +1938,17 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I3" t="s">
+        <v>280</v>
+      </c>
+      <c r="J3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1927,8 +1967,17 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I4" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1947,8 +1996,17 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1964,8 +2022,17 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" t="s">
+        <v>280</v>
+      </c>
+      <c r="I6" t="s">
+        <v>280</v>
+      </c>
+      <c r="J6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1981,8 +2048,17 @@
       <c r="F7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1998,8 +2074,17 @@
       <c r="F8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I8" t="s">
+        <v>280</v>
+      </c>
+      <c r="J8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2015,8 +2100,17 @@
       <c r="F9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2032,8 +2126,17 @@
       <c r="F10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2052,8 +2155,17 @@
       <c r="F11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>280</v>
+      </c>
+      <c r="I11" t="s">
+        <v>280</v>
+      </c>
+      <c r="J11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2069,8 +2181,17 @@
       <c r="F12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2089,8 +2210,17 @@
       <c r="F13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>280</v>
+      </c>
+      <c r="I13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2106,8 +2236,17 @@
       <c r="F14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" t="s">
+        <v>280</v>
+      </c>
+      <c r="J14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2123,8 +2262,17 @@
       <c r="F15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>280</v>
+      </c>
+      <c r="I15" t="s">
+        <v>280</v>
+      </c>
+      <c r="J15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2143,8 +2291,17 @@
       <c r="F16" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" t="s">
+        <v>280</v>
+      </c>
+      <c r="I16" t="s">
+        <v>280</v>
+      </c>
+      <c r="J16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2160,8 +2317,17 @@
       <c r="F17" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="21">
+      <c r="H17" t="s">
+        <v>280</v>
+      </c>
+      <c r="I17" t="s">
+        <v>280</v>
+      </c>
+      <c r="J17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2180,8 +2346,17 @@
       <c r="F18" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" t="s">
+        <v>280</v>
+      </c>
+      <c r="I18" t="s">
+        <v>280</v>
+      </c>
+      <c r="J18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2200,8 +2375,17 @@
       <c r="F19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" t="s">
+        <v>280</v>
+      </c>
+      <c r="I19" t="s">
+        <v>280</v>
+      </c>
+      <c r="J19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2217,8 +2401,17 @@
       <c r="F20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" t="s">
+        <v>280</v>
+      </c>
+      <c r="I20" t="s">
+        <v>280</v>
+      </c>
+      <c r="J20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2234,8 +2427,17 @@
       <c r="F21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" t="s">
+        <v>280</v>
+      </c>
+      <c r="I21" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2254,8 +2456,17 @@
       <c r="F22" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" t="s">
+        <v>280</v>
+      </c>
+      <c r="I22" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2274,8 +2485,17 @@
       <c r="F23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" t="s">
+        <v>280</v>
+      </c>
+      <c r="I23" t="s">
+        <v>280</v>
+      </c>
+      <c r="J23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2294,8 +2514,17 @@
       <c r="F24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" t="s">
+        <v>280</v>
+      </c>
+      <c r="I24" t="s">
+        <v>280</v>
+      </c>
+      <c r="J24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2314,8 +2543,17 @@
       <c r="F25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" t="s">
+        <v>280</v>
+      </c>
+      <c r="I25" t="s">
+        <v>280</v>
+      </c>
+      <c r="J25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2334,8 +2572,17 @@
       <c r="F26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="21">
+      <c r="H26" t="s">
+        <v>280</v>
+      </c>
+      <c r="I26" t="s">
+        <v>280</v>
+      </c>
+      <c r="J26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2354,8 +2601,17 @@
       <c r="F27" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" t="s">
+        <v>280</v>
+      </c>
+      <c r="I27" t="s">
+        <v>280</v>
+      </c>
+      <c r="J27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2374,8 +2630,17 @@
       <c r="F28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" t="s">
+        <v>280</v>
+      </c>
+      <c r="I28" t="s">
+        <v>280</v>
+      </c>
+      <c r="J28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2394,8 +2659,17 @@
       <c r="F29" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" t="s">
+        <v>280</v>
+      </c>
+      <c r="I29" t="s">
+        <v>280</v>
+      </c>
+      <c r="J29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2414,8 +2688,17 @@
       <c r="F30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2434,8 +2717,17 @@
       <c r="F31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31" t="s">
+        <v>280</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2454,8 +2746,17 @@
       <c r="F32" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" t="s">
+        <v>280</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2474,8 +2775,17 @@
       <c r="F33" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33" t="s">
+        <v>280</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2494,8 +2804,17 @@
       <c r="F34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34" t="s">
+        <v>280</v>
+      </c>
+      <c r="I34" t="s">
+        <v>280</v>
+      </c>
+      <c r="J34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2514,8 +2833,17 @@
       <c r="F35" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" t="s">
+        <v>280</v>
+      </c>
+      <c r="I35" t="s">
+        <v>280</v>
+      </c>
+      <c r="J35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -2531,8 +2859,17 @@
       <c r="F36" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" t="s">
+        <v>280</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -2548,8 +2885,17 @@
       <c r="F37" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" t="s">
+        <v>280</v>
+      </c>
+      <c r="I37" t="s">
+        <v>280</v>
+      </c>
+      <c r="J37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2565,8 +2911,17 @@
       <c r="F38" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="21">
+      <c r="H38" t="s">
+        <v>280</v>
+      </c>
+      <c r="I38" t="s">
+        <v>280</v>
+      </c>
+      <c r="J38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="21">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -2582,8 +2937,17 @@
       <c r="F39" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="21">
+      <c r="H39" t="s">
+        <v>280</v>
+      </c>
+      <c r="I39" t="s">
+        <v>280</v>
+      </c>
+      <c r="J39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -2599,8 +2963,17 @@
       <c r="F40" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" t="s">
+        <v>280</v>
+      </c>
+      <c r="I40" t="s">
+        <v>280</v>
+      </c>
+      <c r="J40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -2619,8 +2992,17 @@
       <c r="F41" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="H41" t="s">
+        <v>280</v>
+      </c>
+      <c r="I41" t="s">
+        <v>280</v>
+      </c>
+      <c r="J41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2639,8 +3021,17 @@
       <c r="F42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" t="s">
+        <v>280</v>
+      </c>
+      <c r="I42" t="s">
+        <v>280</v>
+      </c>
+      <c r="J42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2656,8 +3047,17 @@
       <c r="F43" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" t="s">
+        <v>280</v>
+      </c>
+      <c r="I43" t="s">
+        <v>280</v>
+      </c>
+      <c r="J43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -2676,8 +3076,17 @@
       <c r="F44" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" t="s">
+        <v>280</v>
+      </c>
+      <c r="I44" t="s">
+        <v>280</v>
+      </c>
+      <c r="J44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -2693,8 +3102,17 @@
       <c r="F45" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" t="s">
+        <v>280</v>
+      </c>
+      <c r="I45" t="s">
+        <v>280</v>
+      </c>
+      <c r="J45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2710,8 +3128,17 @@
       <c r="F46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="21">
+      <c r="H46" t="s">
+        <v>280</v>
+      </c>
+      <c r="I46" t="s">
+        <v>280</v>
+      </c>
+      <c r="J46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="21">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -2730,8 +3157,17 @@
       <c r="F47" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="H47" t="s">
+        <v>280</v>
+      </c>
+      <c r="I47" t="s">
+        <v>280</v>
+      </c>
+      <c r="J47" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -2747,8 +3183,17 @@
       <c r="F48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="H48" t="s">
+        <v>280</v>
+      </c>
+      <c r="I48" t="s">
+        <v>280</v>
+      </c>
+      <c r="J48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2764,8 +3209,17 @@
       <c r="F49" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="H49" t="s">
+        <v>280</v>
+      </c>
+      <c r="I49" t="s">
+        <v>280</v>
+      </c>
+      <c r="J49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -2781,8 +3235,17 @@
       <c r="F50" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="H50" t="s">
+        <v>280</v>
+      </c>
+      <c r="I50" t="s">
+        <v>280</v>
+      </c>
+      <c r="J50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2798,8 +3261,17 @@
       <c r="F51" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51" t="s">
+        <v>280</v>
+      </c>
+      <c r="I51" t="s">
+        <v>280</v>
+      </c>
+      <c r="J51" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -2815,8 +3287,17 @@
       <c r="F52" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="H52" t="s">
+        <v>280</v>
+      </c>
+      <c r="I52" t="s">
+        <v>280</v>
+      </c>
+      <c r="J52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -2835,8 +3316,17 @@
       <c r="F53" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="H53" t="s">
+        <v>280</v>
+      </c>
+      <c r="I53" t="s">
+        <v>280</v>
+      </c>
+      <c r="J53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -2855,8 +3345,17 @@
       <c r="F54" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="H54" t="s">
+        <v>280</v>
+      </c>
+      <c r="I54" t="s">
+        <v>280</v>
+      </c>
+      <c r="J54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2875,8 +3374,17 @@
       <c r="F55" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="H55" t="s">
+        <v>280</v>
+      </c>
+      <c r="I55" t="s">
+        <v>280</v>
+      </c>
+      <c r="J55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>148</v>
       </c>
@@ -2892,8 +3400,17 @@
       <c r="F56" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="H56" t="s">
+        <v>280</v>
+      </c>
+      <c r="I56" t="s">
+        <v>280</v>
+      </c>
+      <c r="J56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>148</v>
       </c>
@@ -2912,8 +3429,17 @@
       <c r="F57" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="H57" t="s">
+        <v>280</v>
+      </c>
+      <c r="I57" t="s">
+        <v>280</v>
+      </c>
+      <c r="J57" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -2929,8 +3455,17 @@
       <c r="F58" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="H58" t="s">
+        <v>280</v>
+      </c>
+      <c r="I58" t="s">
+        <v>280</v>
+      </c>
+      <c r="J58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -2946,8 +3481,17 @@
       <c r="F59" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="H59" t="s">
+        <v>280</v>
+      </c>
+      <c r="I59" t="s">
+        <v>280</v>
+      </c>
+      <c r="J59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -2966,8 +3510,17 @@
       <c r="F60" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="H60" t="s">
+        <v>280</v>
+      </c>
+      <c r="I60" t="s">
+        <v>280</v>
+      </c>
+      <c r="J60" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -2983,8 +3536,17 @@
       <c r="F61" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="H61" t="s">
+        <v>280</v>
+      </c>
+      <c r="I61" t="s">
+        <v>280</v>
+      </c>
+      <c r="J61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -3000,8 +3562,17 @@
       <c r="F62" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="H62" t="s">
+        <v>280</v>
+      </c>
+      <c r="I62" t="s">
+        <v>280</v>
+      </c>
+      <c r="J62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -3017,8 +3588,17 @@
       <c r="F63" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="H63" t="s">
+        <v>280</v>
+      </c>
+      <c r="I63" t="s">
+        <v>280</v>
+      </c>
+      <c r="J63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -3034,8 +3614,17 @@
       <c r="F64" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="21">
+      <c r="H64" t="s">
+        <v>280</v>
+      </c>
+      <c r="I64" t="s">
+        <v>280</v>
+      </c>
+      <c r="J64" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="21">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -3051,8 +3640,17 @@
       <c r="F65" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" t="s">
+        <v>280</v>
+      </c>
+      <c r="I65" t="s">
+        <v>280</v>
+      </c>
+      <c r="J65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -3068,8 +3666,17 @@
       <c r="F66" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="H66" t="s">
+        <v>280</v>
+      </c>
+      <c r="I66" t="s">
+        <v>280</v>
+      </c>
+      <c r="J66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -3085,8 +3692,17 @@
       <c r="F67" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="H67" t="s">
+        <v>280</v>
+      </c>
+      <c r="I67" t="s">
+        <v>280</v>
+      </c>
+      <c r="J67" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -3102,8 +3718,17 @@
       <c r="F68" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="H68" t="s">
+        <v>280</v>
+      </c>
+      <c r="I68" t="s">
+        <v>280</v>
+      </c>
+      <c r="J68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>173</v>
       </c>
@@ -3119,8 +3744,17 @@
       <c r="F69" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="H69" t="s">
+        <v>280</v>
+      </c>
+      <c r="I69" t="s">
+        <v>280</v>
+      </c>
+      <c r="J69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -3136,8 +3770,17 @@
       <c r="F70" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="H70" t="s">
+        <v>280</v>
+      </c>
+      <c r="I70" t="s">
+        <v>280</v>
+      </c>
+      <c r="J70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>173</v>
       </c>
@@ -3156,8 +3799,17 @@
       <c r="F71" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="H71" t="s">
+        <v>280</v>
+      </c>
+      <c r="I71" t="s">
+        <v>280</v>
+      </c>
+      <c r="J71" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -3176,8 +3828,17 @@
       <c r="F72" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="H72" t="s">
+        <v>280</v>
+      </c>
+      <c r="I72" t="s">
+        <v>280</v>
+      </c>
+      <c r="J72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>173</v>
       </c>
@@ -3196,8 +3857,17 @@
       <c r="F73" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="H73" t="s">
+        <v>280</v>
+      </c>
+      <c r="I73" t="s">
+        <v>280</v>
+      </c>
+      <c r="J73" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -3213,8 +3883,17 @@
       <c r="F74" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="H74" t="s">
+        <v>280</v>
+      </c>
+      <c r="I74" t="s">
+        <v>280</v>
+      </c>
+      <c r="J74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -3230,8 +3909,17 @@
       <c r="F75" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="21">
+      <c r="H75" t="s">
+        <v>280</v>
+      </c>
+      <c r="I75" t="s">
+        <v>280</v>
+      </c>
+      <c r="J75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="21">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -3250,8 +3938,17 @@
       <c r="F76" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76" t="s">
+        <v>280</v>
+      </c>
+      <c r="I76" t="s">
+        <v>280</v>
+      </c>
+      <c r="J76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -3267,8 +3964,17 @@
       <c r="F77" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77" t="s">
+        <v>280</v>
+      </c>
+      <c r="I77" t="s">
+        <v>280</v>
+      </c>
+      <c r="J77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -3284,8 +3990,17 @@
       <c r="F78" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="21">
+      <c r="H78" t="s">
+        <v>280</v>
+      </c>
+      <c r="I78" t="s">
+        <v>280</v>
+      </c>
+      <c r="J78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="21">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -3304,8 +4019,17 @@
       <c r="F79" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79" t="s">
+        <v>280</v>
+      </c>
+      <c r="I79" t="s">
+        <v>280</v>
+      </c>
+      <c r="J79" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -3324,8 +4048,17 @@
       <c r="F80" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="H80" t="s">
+        <v>280</v>
+      </c>
+      <c r="I80" t="s">
+        <v>280</v>
+      </c>
+      <c r="J80" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -3344,8 +4077,17 @@
       <c r="F81" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="H81" t="s">
+        <v>280</v>
+      </c>
+      <c r="I81" t="s">
+        <v>280</v>
+      </c>
+      <c r="J81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -3361,8 +4103,17 @@
       <c r="F82" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82" t="s">
+        <v>280</v>
+      </c>
+      <c r="I82" t="s">
+        <v>280</v>
+      </c>
+      <c r="J82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -3378,8 +4129,17 @@
       <c r="F83" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="21">
+      <c r="H83" t="s">
+        <v>280</v>
+      </c>
+      <c r="I83" t="s">
+        <v>280</v>
+      </c>
+      <c r="J83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="21">
       <c r="A84" t="s">
         <v>220</v>
       </c>
@@ -3398,8 +4158,17 @@
       <c r="F84" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84" t="s">
+        <v>280</v>
+      </c>
+      <c r="I84" t="s">
+        <v>280</v>
+      </c>
+      <c r="J84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>220</v>
       </c>
@@ -3418,8 +4187,17 @@
       <c r="F85" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="21">
+      <c r="H85" t="s">
+        <v>280</v>
+      </c>
+      <c r="I85" t="s">
+        <v>280</v>
+      </c>
+      <c r="J85" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="21">
       <c r="A86" t="s">
         <v>220</v>
       </c>
@@ -3438,8 +4216,17 @@
       <c r="F86" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="H86" t="s">
+        <v>280</v>
+      </c>
+      <c r="I86" t="s">
+        <v>280</v>
+      </c>
+      <c r="J86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>220</v>
       </c>
@@ -3458,8 +4245,17 @@
       <c r="F87" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="H87" t="s">
+        <v>280</v>
+      </c>
+      <c r="I87" t="s">
+        <v>280</v>
+      </c>
+      <c r="J87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -3478,8 +4274,17 @@
       <c r="F88" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="H88" t="s">
+        <v>280</v>
+      </c>
+      <c r="I88" t="s">
+        <v>280</v>
+      </c>
+      <c r="J88" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>220</v>
       </c>
@@ -3498,8 +4303,17 @@
       <c r="F89" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="H89" t="s">
+        <v>280</v>
+      </c>
+      <c r="I89" t="s">
+        <v>280</v>
+      </c>
+      <c r="J89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>220</v>
       </c>
@@ -3518,8 +4332,17 @@
       <c r="F90" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="H90" t="s">
+        <v>280</v>
+      </c>
+      <c r="I90" t="s">
+        <v>280</v>
+      </c>
+      <c r="J90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>220</v>
       </c>
@@ -3538,8 +4361,17 @@
       <c r="F91" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="H91" t="s">
+        <v>280</v>
+      </c>
+      <c r="I91" t="s">
+        <v>280</v>
+      </c>
+      <c r="J91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>220</v>
       </c>
@@ -3558,8 +4390,17 @@
       <c r="F92" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="H92" t="s">
+        <v>280</v>
+      </c>
+      <c r="I92" t="s">
+        <v>280</v>
+      </c>
+      <c r="J92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -3578,8 +4419,17 @@
       <c r="F93" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="H93" t="s">
+        <v>280</v>
+      </c>
+      <c r="I93" t="s">
+        <v>280</v>
+      </c>
+      <c r="J93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>220</v>
       </c>
@@ -3598,8 +4448,17 @@
       <c r="F94" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="H94" t="s">
+        <v>280</v>
+      </c>
+      <c r="I94" t="s">
+        <v>280</v>
+      </c>
+      <c r="J94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -3618,8 +4477,17 @@
       <c r="F95" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="H95" t="s">
+        <v>280</v>
+      </c>
+      <c r="I95" t="s">
+        <v>280</v>
+      </c>
+      <c r="J95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -3638,8 +4506,17 @@
       <c r="F96" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="H96" t="s">
+        <v>280</v>
+      </c>
+      <c r="I96" t="s">
+        <v>280</v>
+      </c>
+      <c r="J96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>220</v>
       </c>
@@ -3658,8 +4535,17 @@
       <c r="F97" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="H97" t="s">
+        <v>280</v>
+      </c>
+      <c r="I97" t="s">
+        <v>280</v>
+      </c>
+      <c r="J97" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>220</v>
       </c>
@@ -3678,8 +4564,17 @@
       <c r="F98" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="H98" t="s">
+        <v>280</v>
+      </c>
+      <c r="I98" t="s">
+        <v>280</v>
+      </c>
+      <c r="J98" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>220</v>
       </c>
@@ -3698,8 +4593,17 @@
       <c r="F99" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="H99" t="s">
+        <v>280</v>
+      </c>
+      <c r="I99" t="s">
+        <v>280</v>
+      </c>
+      <c r="J99" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>220</v>
       </c>
@@ -3718,8 +4622,17 @@
       <c r="F100" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="H100" t="s">
+        <v>280</v>
+      </c>
+      <c r="I100" t="s">
+        <v>280</v>
+      </c>
+      <c r="J100" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>220</v>
       </c>
@@ -3738,8 +4651,17 @@
       <c r="F101" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="H101" t="s">
+        <v>280</v>
+      </c>
+      <c r="I101" t="s">
+        <v>280</v>
+      </c>
+      <c r="J101" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -3758,8 +4680,17 @@
       <c r="F102" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="H102" t="s">
+        <v>280</v>
+      </c>
+      <c r="I102" t="s">
+        <v>280</v>
+      </c>
+      <c r="J102" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>220</v>
       </c>
@@ -3778,8 +4709,17 @@
       <c r="F103" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="H103" t="s">
+        <v>280</v>
+      </c>
+      <c r="I103" t="s">
+        <v>280</v>
+      </c>
+      <c r="J103" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -3798,8 +4738,17 @@
       <c r="F104" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="H104" t="s">
+        <v>280</v>
+      </c>
+      <c r="I104" t="s">
+        <v>280</v>
+      </c>
+      <c r="J104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>220</v>
       </c>
@@ -3817,6 +4766,15 @@
       </c>
       <c r="F105" t="s">
         <v>26</v>
+      </c>
+      <c r="H105" t="s">
+        <v>280</v>
+      </c>
+      <c r="I105" t="s">
+        <v>280</v>
+      </c>
+      <c r="J105" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/resource/okayama/shop_list.xlsx
+++ b/resource/okayama/shop_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/p000078/.bitnami/stackman/machines/xampp/volumes/root/htdocs/resource/okayama/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B2B68E-C1C6-4643-82D2-FE1E524E6645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C8A9B0-122D-5246-B9A5-BAA512F0C63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3140" yWindow="2620" windowWidth="28300" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="282">
   <si>
     <t>ページ</t>
   </si>
@@ -890,6 +890,10 @@
   </si>
   <si>
     <t>なし</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>お知らせ画像</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1845,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1858,7 +1862,7 @@
     <col min="6" max="6" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1889,8 +1893,11 @@
       <c r="J1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1918,8 +1925,11 @@
       <c r="J2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1947,8 +1957,11 @@
       <c r="J3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1976,8 +1989,11 @@
       <c r="J4" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2005,8 +2021,11 @@
       <c r="J5" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2031,8 +2050,11 @@
       <c r="J6" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2057,8 +2079,11 @@
       <c r="J7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2083,8 +2108,11 @@
       <c r="J8" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2109,8 +2137,11 @@
       <c r="J9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2135,8 +2166,11 @@
       <c r="J10" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2164,8 +2198,11 @@
       <c r="J11" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -2190,8 +2227,11 @@
       <c r="J12" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2219,8 +2259,11 @@
       <c r="J13" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -2245,8 +2288,11 @@
       <c r="J14" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -2271,8 +2317,11 @@
       <c r="J15" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -2300,8 +2349,11 @@
       <c r="J16" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -2326,8 +2378,11 @@
       <c r="J17" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="21">
+      <c r="K17" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2355,8 +2410,11 @@
       <c r="J18" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2384,8 +2442,11 @@
       <c r="J19" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2410,8 +2471,11 @@
       <c r="J20" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2436,8 +2500,11 @@
       <c r="J21" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2465,8 +2532,11 @@
       <c r="J22" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2494,8 +2564,11 @@
       <c r="J23" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2523,8 +2596,11 @@
       <c r="J24" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2552,8 +2628,11 @@
       <c r="J25" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>66</v>
       </c>
@@ -2581,8 +2660,11 @@
       <c r="J26" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="21">
+      <c r="K26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="21">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2610,8 +2692,11 @@
       <c r="J27" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>66</v>
       </c>
@@ -2639,8 +2724,11 @@
       <c r="J28" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>66</v>
       </c>
@@ -2668,8 +2756,11 @@
       <c r="J29" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -2697,8 +2788,11 @@
       <c r="J30" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2726,8 +2820,11 @@
       <c r="J31" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2755,8 +2852,11 @@
       <c r="J32" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -2784,8 +2884,11 @@
       <c r="J33" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2813,8 +2916,11 @@
       <c r="J34" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -2842,8 +2948,11 @@
       <c r="J35" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -2868,8 +2977,11 @@
       <c r="J36" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>97</v>
       </c>
@@ -2894,8 +3006,11 @@
       <c r="J37" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -2920,8 +3035,11 @@
       <c r="J38" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="21">
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="21">
       <c r="A39" t="s">
         <v>97</v>
       </c>
@@ -2946,8 +3064,11 @@
       <c r="J39" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="21">
+      <c r="K39" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="21">
       <c r="A40" t="s">
         <v>97</v>
       </c>
@@ -2972,8 +3093,11 @@
       <c r="J40" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>97</v>
       </c>
@@ -3001,8 +3125,11 @@
       <c r="J41" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -3030,8 +3157,11 @@
       <c r="J42" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -3056,8 +3186,11 @@
       <c r="J43" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>97</v>
       </c>
@@ -3085,8 +3218,11 @@
       <c r="J44" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>97</v>
       </c>
@@ -3111,8 +3247,11 @@
       <c r="J45" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -3137,8 +3276,11 @@
       <c r="J46" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="21">
+      <c r="K46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="21">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -3166,8 +3308,11 @@
       <c r="J47" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>97</v>
       </c>
@@ -3192,8 +3337,11 @@
       <c r="J48" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -3218,8 +3366,11 @@
       <c r="J49" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -3244,8 +3395,11 @@
       <c r="J50" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -3270,8 +3424,11 @@
       <c r="J51" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>97</v>
       </c>
@@ -3296,8 +3453,11 @@
       <c r="J52" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -3325,8 +3485,11 @@
       <c r="J53" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -3354,8 +3517,11 @@
       <c r="J54" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -3383,8 +3549,11 @@
       <c r="J55" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>148</v>
       </c>
@@ -3409,8 +3578,11 @@
       <c r="J56" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>148</v>
       </c>
@@ -3438,8 +3610,11 @@
       <c r="J57" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -3464,8 +3639,11 @@
       <c r="J58" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>148</v>
       </c>
@@ -3490,8 +3668,11 @@
       <c r="J59" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -3519,8 +3700,11 @@
       <c r="J60" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>148</v>
       </c>
@@ -3545,8 +3729,11 @@
       <c r="J61" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -3571,8 +3758,11 @@
       <c r="J62" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -3597,8 +3787,11 @@
       <c r="J63" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>148</v>
       </c>
@@ -3623,8 +3816,11 @@
       <c r="J64" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="21">
+      <c r="K64" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="21">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -3649,8 +3845,11 @@
       <c r="J65" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>173</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="J66" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>173</v>
       </c>
@@ -3701,8 +3903,11 @@
       <c r="J67" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>173</v>
       </c>
@@ -3727,8 +3932,11 @@
       <c r="J68" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>173</v>
       </c>
@@ -3753,8 +3961,11 @@
       <c r="J69" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>173</v>
       </c>
@@ -3779,8 +3990,11 @@
       <c r="J70" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>173</v>
       </c>
@@ -3808,8 +4022,11 @@
       <c r="J71" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -3837,8 +4054,11 @@
       <c r="J72" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>173</v>
       </c>
@@ -3866,8 +4086,11 @@
       <c r="J73" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -3892,8 +4115,11 @@
       <c r="J74" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -3918,8 +4144,11 @@
       <c r="J75" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="21">
+      <c r="K75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="21">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -3947,8 +4176,11 @@
       <c r="J76" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -3973,8 +4205,11 @@
       <c r="J77" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -3999,8 +4234,11 @@
       <c r="J78" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="21">
+      <c r="K78" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="21">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -4028,8 +4266,11 @@
       <c r="J79" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -4057,8 +4298,11 @@
       <c r="J80" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>173</v>
       </c>
@@ -4086,8 +4330,11 @@
       <c r="J81" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -4112,8 +4359,11 @@
       <c r="J82" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>173</v>
       </c>
@@ -4138,8 +4388,11 @@
       <c r="J83" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="21">
+      <c r="K83" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="21">
       <c r="A84" t="s">
         <v>220</v>
       </c>
@@ -4167,8 +4420,11 @@
       <c r="J84" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>220</v>
       </c>
@@ -4196,8 +4452,11 @@
       <c r="J85" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="21">
+      <c r="K85" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="21">
       <c r="A86" t="s">
         <v>220</v>
       </c>
@@ -4225,8 +4484,11 @@
       <c r="J86" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>220</v>
       </c>
@@ -4254,8 +4516,11 @@
       <c r="J87" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -4283,8 +4548,11 @@
       <c r="J88" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" t="s">
         <v>220</v>
       </c>
@@ -4312,8 +4580,11 @@
       <c r="J89" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" t="s">
         <v>220</v>
       </c>
@@ -4341,8 +4612,11 @@
       <c r="J90" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" t="s">
         <v>220</v>
       </c>
@@ -4370,8 +4644,11 @@
       <c r="J91" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" t="s">
         <v>220</v>
       </c>
@@ -4399,8 +4676,11 @@
       <c r="J92" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -4428,8 +4708,11 @@
       <c r="J93" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" t="s">
         <v>220</v>
       </c>
@@ -4457,8 +4740,11 @@
       <c r="J94" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" t="s">
         <v>220</v>
       </c>
@@ -4486,8 +4772,11 @@
       <c r="J95" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" t="s">
         <v>220</v>
       </c>
@@ -4515,8 +4804,11 @@
       <c r="J96" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>220</v>
       </c>
@@ -4544,8 +4836,11 @@
       <c r="J97" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>220</v>
       </c>
@@ -4573,8 +4868,11 @@
       <c r="J98" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>220</v>
       </c>
@@ -4602,8 +4900,11 @@
       <c r="J99" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>220</v>
       </c>
@@ -4631,8 +4932,11 @@
       <c r="J100" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>220</v>
       </c>
@@ -4660,8 +4964,11 @@
       <c r="J101" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>220</v>
       </c>
@@ -4689,8 +4996,11 @@
       <c r="J102" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>220</v>
       </c>
@@ -4718,8 +5028,11 @@
       <c r="J103" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>220</v>
       </c>
@@ -4747,8 +5060,11 @@
       <c r="J104" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>220</v>
       </c>
@@ -4774,6 +5090,9 @@
         <v>280</v>
       </c>
       <c r="J105" t="s">
+        <v>280</v>
+      </c>
+      <c r="K105" t="s">
         <v>280</v>
       </c>
     </row>
